--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3839944.348110811</v>
+        <v>3835931.73809682</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283175</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>52.83391759427975</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>274.1686863940896</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734071385</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>149.5516258167723</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>13.02719212039518</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>53.18368767881407</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>240.2648719523397</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.63940851427414</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991681</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.6416535300274</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>329.7471118335083</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1189,10 +1189,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1308,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>61.42978662487896</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>183.9125374111489</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710073</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187864</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695508</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576158</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784688</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182121</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465689</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.421048022931</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922686</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>5.890337106877967</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012147</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.405450327288</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892439</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>113.8415422301089</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695514</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812303</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462237</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856538</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012153</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1849,10 +1849,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206809</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462237</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856538</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>103.5745801383519</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>219.6573813428539</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695523</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>35.41770597126702</v>
       </c>
       <c r="T25" t="n">
-        <v>153.0598676525418</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>137.9792024346629</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>52.91369288257679</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>216.7343124775824</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710073</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695507</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174145</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784688</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182121</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465689</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.421048022931</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922686</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856531</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012146</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
-        <v>140.7215037338474</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890369</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986277</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D40" t="n">
-        <v>132.4116178914898</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>134.452563354727</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>98.20549876776153</v>
       </c>
     </row>
     <row r="44">
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>152.854689248206</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1555.338782035317</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="C2" t="n">
-        <v>1186.376265094905</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>828.1105664881544</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881544</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4345,13 +4345,13 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="W2" t="n">
-        <v>2609.016021139987</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X2" t="n">
-        <v>2332.07795407525</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y2" t="n">
-        <v>1941.938622099438</v>
+        <v>2029.572515263129</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>936.5735814686085</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>846.071687106476</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080139</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201688</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695168</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373023</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507439</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275696</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>363.7915515140957</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C4" t="n">
-        <v>212.7293032143256</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D4" t="n">
-        <v>212.7293032143256</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
         <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.675339798491</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.990851592604</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W4" t="n">
-        <v>812.5736815556431</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X4" t="n">
-        <v>584.5841306576258</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y4" t="n">
-        <v>363.7915515140957</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1537.086630593157</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C5" t="n">
-        <v>1168.124113652745</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>809.8584150459947</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>424.0701624477504</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883008</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539437</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W5" t="n">
-        <v>2687.29156089417</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X5" t="n">
-        <v>2313.82580263309</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y5" t="n">
-        <v>1923.686470657279</v>
+        <v>1661.795585684488</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>384.3315924698002</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C7" t="n">
-        <v>384.3315924698002</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>234.2149530574645</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W7" t="n">
-        <v>880.2242361621296</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X7" t="n">
-        <v>652.2346852641123</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y7" t="n">
-        <v>431.4421061205821</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1274.539111149739</v>
+        <v>1859.132475219475</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.539111149739</v>
+        <v>1490.169958279063</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1131.904259672313</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>746.1160070740684</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>739.170506324865</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794323</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450752</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450752</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189672</v>
+        <v>2635.871647259408</v>
       </c>
       <c r="Y8" t="n">
-        <v>1661.138951213861</v>
+        <v>2245.732315283597</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064626</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4904,31 +4904,31 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>697.9541770656748</v>
+        <v>1007.446783179745</v>
       </c>
       <c r="C10" t="n">
-        <v>529.0179941377679</v>
+        <v>838.5106002518381</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>688.3939608395024</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>540.4808672571093</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>393.5909197591989</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>225.8880831339178</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1651.69385103678</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1397.009362830893</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>1107.592192793932</v>
+        <v>1637.877378051532</v>
       </c>
       <c r="X10" t="n">
-        <v>879.6026418959145</v>
+        <v>1409.887827153515</v>
       </c>
       <c r="Y10" t="n">
-        <v>879.6026418959145</v>
+        <v>1189.095248009985</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,19 +5029,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
@@ -5050,43 +5050,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913851</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1963.765362972543</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1963.765362972543</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>847.6442739835319</v>
+        <v>1022.530292372933</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835319</v>
+        <v>853.594109445026</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711964</v>
+        <v>703.4774700326902</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888035</v>
+        <v>555.5643764502971</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908934</v>
+        <v>408.6744289523867</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057735</v>
+        <v>241.4783296672667</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>99.76649850946478</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854708</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648822</v>
+        <v>1942.378057281681</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611861</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611861</v>
+        <v>1424.971336346703</v>
       </c>
       <c r="Y13" t="n">
-        <v>1029.292738813771</v>
+        <v>1204.178757203173</v>
       </c>
     </row>
     <row r="14">
@@ -5260,34 +5260,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5299,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191924</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191924</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.71788640035</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2204.627616639637</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400737</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429797</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429797</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429797</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429797</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578599</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5472,16 +5472,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138431</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703132</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5506,61 +5506,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615664</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334537</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673286</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.54608366783</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694715</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740623</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385789</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2233.355914590556</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>2233.355914590556</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2233.355914590556</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>2680.685310603264</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3278.063798229816</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>3905.661761784423</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>4457.57149202371</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>4457.57149202371</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398592</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398592</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301204</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.415660022978</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566163</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.23547033442</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606219</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400686</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635732</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>948.5505208511896</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232828</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232828</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408898</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429797</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578598</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741514</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1578.981115722976</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1350.991564824959</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1130.198985681429</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,31 +5734,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5770,10 +5770,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>809.0422355233313</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>640.1060525954244</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.483279497101</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>990.6907003535711</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3050.708758511721</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C25" t="n">
-        <v>2881.772575583814</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D25" t="n">
-        <v>2881.772575583814</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>2733.859482001421</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>2586.969534503511</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T25" t="n">
-        <v>4286.32668738414</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U25" t="n">
-        <v>3997.251460728338</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V25" t="n">
-        <v>3742.566972522452</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W25" t="n">
-        <v>3453.149802485491</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X25" t="n">
-        <v>3453.149802485491</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y25" t="n">
-        <v>3232.357223341961</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="26">
@@ -6214,25 +6214,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6241,13 +6241,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4551.460220646409</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4551.460220646409</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4262.384993990607</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>4262.384993990607</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3972.967823953646</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2258.451930722651</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2592.376702893872</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>3087.702309109631</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3087.702309109631</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3715.300272664238</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6660,13 +6660,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1380.253191019954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1152.263640121936</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>931.4710609784063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>549.6145409888043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6894,16 +6894,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1469.462305897552</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1180.045135860591</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>952.0555849625741</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>731.263005819044</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6976,13 +6976,13 @@
         <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3342.537229081857</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.60104615395</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741614</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159222</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661311</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.77343521839</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>4481.644515586504</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>4262.043050609445</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>3972.967823953643</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>3972.967823953643</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>3972.967823953643</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>3744.978273055626</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>3524.185693912096</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014779</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>915.1035305473727</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>746.1673476194659</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381631</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557701</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578599</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578599</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487569</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831767</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.30283062588</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.88566058892</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.896109690903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473727</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7408,7 +7408,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
         <v>378.192580311172</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>2091.550948547922</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1836.866460342035</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1547.449290305074</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1319.459739407057</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1098.667160263527</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N45" t="n">
-        <v>1965.532750177311</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3260.450525729772</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>3091.514342801865</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>2941.39770338953</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>2793.484609807137</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024106</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3777.85724666475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3488.440076627789</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3260.450525729772</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>3260.450525729772</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.738725912720952e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856532</v>
+        <v>75.37549921168755</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>104.7431111219857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405046</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012153</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016444</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>182.9484181982389</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>6.0522740461833</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>145.6085800303776</v>
       </c>
       <c r="T25" t="n">
-        <v>64.34558267474645</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>43.04708356698171</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>233.6093054540142</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>35.40333084624564</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
-        <v>40.30478226779695</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D40" t="n">
-        <v>16.20385512672243</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272881</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>151.7319110345171</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>120.3791545843333</v>
       </c>
     </row>
     <row r="44">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>99.28295407562197</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>647896.3069800537</v>
+        <v>647896.3069800538</v>
       </c>
     </row>
     <row r="3">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>637127.5500949888</v>
+        <v>637127.5500949887</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>637127.5500949888</v>
+        <v>637127.5500949887</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>637127.5500949889</v>
+        <v>637127.5500949887</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>637127.5500949888</v>
+        <v>637127.5500949887</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>637127.5500949888</v>
+        <v>637127.5500949887</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.7256176763</v>
+      </c>
+      <c r="C2" t="n">
         <v>800515.7256176759</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>800515.7256176757</v>
       </c>
-      <c r="D2" t="n">
-        <v>800515.7256176756</v>
-      </c>
       <c r="E2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.934697756</v>
       </c>
       <c r="F2" t="n">
         <v>786967.9346977556</v>
       </c>
       <c r="G2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977554</v>
       </c>
       <c r="I2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="J2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="K2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="M2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="L2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.934697756</v>
-      </c>
       <c r="N2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="O2" t="n">
         <v>786967.9346977561</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.063298011819521e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.074904503184371e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316957</v>
       </c>
       <c r="C4" t="n">
+        <v>91573.95495316951</v>
+      </c>
+      <c r="D4" t="n">
         <v>91573.95495316939</v>
       </c>
-      <c r="D4" t="n">
-        <v>91573.95495316946</v>
-      </c>
       <c r="E4" t="n">
-        <v>12386.92018181835</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181829</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.9201818183</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181822</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181824</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181818</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-727736.9156244794</v>
+        <v>-727736.9156244787</v>
       </c>
       <c r="C6" t="n">
-        <v>601007.8301031131</v>
+        <v>601007.8301031129</v>
       </c>
       <c r="D6" t="n">
-        <v>601007.830103113</v>
+        <v>601007.8301031129</v>
       </c>
       <c r="E6" t="n">
-        <v>348046.0228846748</v>
+        <v>347698.6436303183</v>
       </c>
       <c r="F6" t="n">
-        <v>673458.4846920302</v>
+        <v>673111.1054376735</v>
       </c>
       <c r="G6" t="n">
-        <v>673458.4846920301</v>
+        <v>673111.1054376739</v>
       </c>
       <c r="H6" t="n">
-        <v>673458.4846920305</v>
+        <v>673111.1054376733</v>
       </c>
       <c r="I6" t="n">
-        <v>673458.4846920304</v>
+        <v>673111.1054376737</v>
       </c>
       <c r="J6" t="n">
-        <v>455927.2822947531</v>
+        <v>455579.9030403963</v>
       </c>
       <c r="K6" t="n">
-        <v>673458.4846920306</v>
+        <v>673111.1054376736</v>
       </c>
       <c r="L6" t="n">
-        <v>673458.4846920308</v>
+        <v>673111.1054376735</v>
       </c>
       <c r="M6" t="n">
-        <v>588403.4567565189</v>
+        <v>588056.0775021618</v>
       </c>
       <c r="N6" t="n">
-        <v>673458.4846920301</v>
+        <v>673111.1054376736</v>
       </c>
       <c r="O6" t="n">
-        <v>673458.4846920309</v>
+        <v>673111.105437674</v>
       </c>
       <c r="P6" t="n">
-        <v>673458.4846920306</v>
+        <v>673111.1054376736</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.139089236967269e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.139089236967269e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.493087135410557e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26928,10 +26928,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.493087135410557e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27165,10 +27165,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.493087135410557e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>312.4389741767278</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>95.56241428437943</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>17.69519528185552</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>239.1104512034328</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,16 +27624,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>296.0572810385989</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>145.9730667037139</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.1925716676631</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>214.5414662356961</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04138809065557325</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>81.17461381994514</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27909,10 +27909,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>83.32522828944182</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>102.299300794464</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28569,10 +28569,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28629,7 +28629,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29511,13 +29511,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.139089236967269e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>6.139089236967269e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29529,7 +29529,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>6.139089236967269e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>6.139089236967269e-14</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>6.139089236967269e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>6.139089236967269e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>6.139089236967269e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>6.139089236967269e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.139089236967269e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.250999386887997e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.493087135410557e-13</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1.493087135410557e-13</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1.493087135410557e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1.493087135410557e-13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.493087135410557e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.493087135410557e-13</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.493087135410557e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.493087135410557e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.493087135410557e-13</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1.493087135410557e-13</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1.493087135410557e-13</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1.493087135410557e-13</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1.493087135410557e-13</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1.493087135410557e-13</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.493087135410557e-13</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.493087135410557e-13</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1.493087135410557e-13</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>1.493087135410557e-13</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>1.493087135410557e-13</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>1.493087135410557e-13</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>1.493087135410557e-13</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>1.493087135410557e-13</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>1.493087135410557e-13</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.493087135410557e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>493.6049778318548</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>732.4825987614911</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>250.3097721075173</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,22 +32314,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>590.4022545401854</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32548,10 +32548,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32560,22 +32560,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>454.5879800486398</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32800,10 +32800,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32970,7 +32970,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>624.1318526922785</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>153.9723775119811</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33271,16 +33271,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33441,7 +33441,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33657,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,16 +33745,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>576.057346513631</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33985,16 +33985,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34128,10 +34128,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,19 +34222,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>699.0496615458086</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>359.6305704175246</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295356</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998986</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>590.3485648394727</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>116.3353646931871</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,16 +35816,16 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>451.8478747603111</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36208,22 +36208,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>311.9917356041954</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36448,10 +36448,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>481.5356082478341</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>27.13475084531435</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36919,16 +36919,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,16 +37393,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>433.4611020691866</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295359</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096352</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899077</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998986</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37633,16 +37633,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,10 +37776,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,19 +37870,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>556.4534171013642</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_19_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3835931.73809682</v>
+        <v>3837692.268399605</v>
       </c>
     </row>
     <row r="7">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>52.83391759427975</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>375.5601231038204</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734071385</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>13.02719212039518</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>124.2292170629827</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>81.2788737961841</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>240.2648719523397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3.064569824649001</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>71.67037196991681</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>329.7471118335083</v>
+        <v>192.8565489458279</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>61.42978662487896</v>
+        <v>71.67037196991754</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>5.890337106877967</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>3.458642397731778</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174109</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788178581</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0.8253826161911274</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>35.41770597126702</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>57.24347904696276</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>104.8913819999782</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>98.20549876776153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2029.572515263129</v>
+        <v>1611.504630229387</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1611.504630229387</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1611.504630229387</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528559</v>
@@ -4357,25 +4357,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794323</v>
+        <v>2741.012457539435</v>
       </c>
       <c r="W2" t="n">
-        <v>2403.038273524209</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X2" t="n">
-        <v>2029.572515263129</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="Y2" t="n">
-        <v>2029.572515263129</v>
+        <v>1998.104470293509</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686085</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106476</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080139</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201688</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695168</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373023</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507439</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275696</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>994.2880032601528</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218339</v>
@@ -4524,16 +4524,16 @@
         <v>1927.294548088492</v>
       </c>
       <c r="V4" t="n">
-        <v>1914.135768168901</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W4" t="n">
-        <v>1624.71859813194</v>
+        <v>1383.192889845644</v>
       </c>
       <c r="X4" t="n">
-        <v>1396.729047233923</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y4" t="n">
-        <v>1175.936468090393</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1661.795585684488</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.833068744076</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
         <v>934.5673701373257</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>3133.215280614868</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.72178906653</v>
+        <v>2802.152393271298</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796416</v>
+        <v>2449.383738001183</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535336</v>
+        <v>2075.917979740103</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.795585684488</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="6">
@@ -4637,37 +4637,37 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>680.3679798527295</v>
+        <v>850.4935808376455</v>
       </c>
       <c r="C7" t="n">
-        <v>511.4317969248226</v>
+        <v>681.5573979097386</v>
       </c>
       <c r="D7" t="n">
-        <v>361.3151575124868</v>
+        <v>531.4407584974028</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300937</v>
+        <v>383.5276649150097</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>383.5276649150097</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>215.8248282897287</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>69.60764150758646</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="U7" t="n">
-        <v>1854.900232967364</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="V7" t="n">
-        <v>1600.215744761477</v>
+        <v>1480.924175709433</v>
       </c>
       <c r="W7" t="n">
-        <v>1310.798574724517</v>
+        <v>1480.924175709433</v>
       </c>
       <c r="X7" t="n">
-        <v>1082.809023826499</v>
+        <v>1252.934624811415</v>
       </c>
       <c r="Y7" t="n">
-        <v>862.0164446829692</v>
+        <v>1032.142045667885</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1859.132475219475</v>
+        <v>1381.278680221569</v>
       </c>
       <c r="C8" t="n">
-        <v>1490.169958279063</v>
+        <v>1012.316163281157</v>
       </c>
       <c r="D8" t="n">
-        <v>1131.904259672313</v>
+        <v>654.0504646744068</v>
       </c>
       <c r="E8" t="n">
-        <v>746.1160070740684</v>
+        <v>268.2622120761626</v>
       </c>
       <c r="F8" t="n">
-        <v>739.170506324865</v>
+        <v>261.3167113269591</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520488</v>
+        <v>2884.252265792697</v>
       </c>
       <c r="W8" t="n">
-        <v>3009.337405520488</v>
+        <v>2531.483610522582</v>
       </c>
       <c r="X8" t="n">
-        <v>2635.871647259408</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y8" t="n">
-        <v>2245.732315283597</v>
+        <v>1767.878520285691</v>
       </c>
     </row>
     <row r="9">
@@ -4859,40 +4859,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4907,16 +4907,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199866</v>
@@ -4928,7 +4928,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,43 +4938,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1007.446783179745</v>
+        <v>752.7622949738584</v>
       </c>
       <c r="C10" t="n">
-        <v>838.5106002518381</v>
+        <v>583.8261120459515</v>
       </c>
       <c r="D10" t="n">
-        <v>688.3939608395024</v>
+        <v>433.7094726336157</v>
       </c>
       <c r="E10" t="n">
-        <v>540.4808672571093</v>
+        <v>285.7963790512226</v>
       </c>
       <c r="F10" t="n">
-        <v>393.5909197591989</v>
+        <v>138.9064315533123</v>
       </c>
       <c r="G10" t="n">
-        <v>225.8880831339178</v>
+        <v>138.9064315533123</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4998,16 +4998,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051532</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X10" t="n">
-        <v>1409.887827153515</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>1189.095248009985</v>
+        <v>934.4107598040981</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,25 +5029,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5056,34 +5056,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1022.530292372933</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C13" t="n">
-        <v>853.594109445026</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D13" t="n">
-        <v>703.4774700326902</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E13" t="n">
-        <v>555.5643764502971</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>408.6744289523867</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>241.4783296672667</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>99.76649850946478</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>2197.062545487568</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V13" t="n">
-        <v>1942.378057281681</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1652.96088724472</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>1424.971336346703</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>1204.178757203173</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="14">
@@ -5272,49 +5272,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="L15" t="n">
-        <v>95.58405025273905</v>
+        <v>590.9096564684974</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>1188.288144095049</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5506,34 +5506,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5740,22 +5740,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,7 +5764,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278208</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2411.187623003223</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6205,34 +6205,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6244,31 +6244,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6445,28 +6445,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6660,13 +6660,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,31 +6958,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>196.5408620426154</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,7 +7165,7 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7311,22 +7311,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>702.4944101284095</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C43" t="n">
-        <v>533.5582272005026</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D43" t="n">
-        <v>383.4415877881669</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E43" t="n">
-        <v>235.5284942057738</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F43" t="n">
-        <v>235.5284942057738</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7596,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y43" t="n">
-        <v>884.1428749586493</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7733,22 +7733,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7788,19 +7788,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.738725912720952e-12</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>75.37549921168755</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>215.126010954363</v>
       </c>
     </row>
     <row r="14">
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>57.22910392194314</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>65.54986409393054</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>145.6085800303776</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>110.0033420516651</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>38.59775584152679</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>62.35543909864963</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.3791545843333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>637127.5500949888</v>
+        <v>637127.5500949887</v>
       </c>
     </row>
     <row r="6">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>637127.5500949887</v>
+        <v>637127.5500949888</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="C2" t="n">
         <v>800515.7256176759</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.7256176756</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="F2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="H2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="I2" t="n">
         <v>786967.934697756</v>
-      </c>
-      <c r="F2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="G2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786967.9346977554</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.9346977558</v>
       </c>
       <c r="J2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="K2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="L2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="L2" t="n">
-        <v>786967.9346977556</v>
-      </c>
       <c r="M2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="N2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977557</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977556</v>
       </c>
     </row>
     <row r="3">
@@ -26368,19 +26368,19 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>7.680563094254467e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6.549796580657131e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316957</v>
+        <v>91573.95495316954</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316951</v>
+        <v>91573.95495316938</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316933</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181822</v>
       </c>
       <c r="G4" t="n">
         <v>12386.92018181813</v>
@@ -26441,16 +26441,16 @@
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181808</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181819</v>
       </c>
       <c r="N4" t="n">
         <v>12386.92018181813</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-727736.9156244787</v>
+        <v>-727736.9156244791</v>
       </c>
       <c r="C6" t="n">
-        <v>601007.8301031129</v>
+        <v>601007.8301031125</v>
       </c>
       <c r="D6" t="n">
         <v>601007.8301031129</v>
       </c>
       <c r="E6" t="n">
-        <v>347698.6436303183</v>
+        <v>348011.2849592399</v>
       </c>
       <c r="F6" t="n">
-        <v>673111.1054376735</v>
+        <v>673423.7467665953</v>
       </c>
       <c r="G6" t="n">
-        <v>673111.1054376739</v>
+        <v>673423.7467665941</v>
       </c>
       <c r="H6" t="n">
-        <v>673111.1054376733</v>
+        <v>673423.7467665949</v>
       </c>
       <c r="I6" t="n">
-        <v>673111.1054376737</v>
+        <v>673423.7467665953</v>
       </c>
       <c r="J6" t="n">
-        <v>455579.9030403963</v>
+        <v>455892.5443693175</v>
       </c>
       <c r="K6" t="n">
-        <v>673111.1054376736</v>
+        <v>673423.7467665949</v>
       </c>
       <c r="L6" t="n">
-        <v>673111.1054376735</v>
+        <v>673423.7467665949</v>
       </c>
       <c r="M6" t="n">
-        <v>588056.0775021618</v>
+        <v>588368.7188310832</v>
       </c>
       <c r="N6" t="n">
-        <v>673111.1054376736</v>
+        <v>673423.7467665949</v>
       </c>
       <c r="O6" t="n">
-        <v>673111.105437674</v>
+        <v>673423.7467665949</v>
       </c>
       <c r="P6" t="n">
-        <v>673111.1054376736</v>
+        <v>673423.7467665948</v>
       </c>
     </row>
   </sheetData>
@@ -26740,16 +26740,16 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26792,13 +26792,13 @@
         <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26962,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27014,19 +27014,19 @@
         <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,19 +27260,19 @@
         <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>312.4389741767278</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.370246968441336</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983812</v>
@@ -27596,7 +27596,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>239.1104512034328</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>94.35543628911208</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>169.7162981627179</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.9730667037139</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>93.28785058518909</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>214.5414662356961</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>81.17461381994514</v>
+        <v>218.0651767076255</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>83.32522828944182</v>
+        <v>73.08464294440324</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-1.080024958355352e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31524,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31676,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>400.5469039565762</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32083,34 +32083,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>732.4825987614911</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>284.1014732918245</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
         <v>228.3420541567482</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34453,7 +34453,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34468,10 +34468,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>257.9506595121318</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>590.3485648394727</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>150.1270658774943</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,13 +35977,13 @@
         <v>97.00034207341486</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38101,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38116,10 +38116,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
